--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roma0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roma0\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,19 @@
     <sheet name="Люди" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -54,24 +62,12 @@
     <t>Відповідальний</t>
   </si>
   <si>
-    <t>Не розуміння продукту користувачем</t>
-  </si>
-  <si>
     <t>Проведення якісного тестування</t>
   </si>
   <si>
-    <t>Непрофесійне документування</t>
-  </si>
-  <si>
     <t>Незадовільна продуктивність</t>
   </si>
   <si>
-    <t>Низька якість коду</t>
-  </si>
-  <si>
-    <t>Низька якість документації</t>
-  </si>
-  <si>
     <t>Зміна вимог у замовника</t>
   </si>
   <si>
@@ -81,9 +77,6 @@
     <t>Недостатня якість тестування</t>
   </si>
   <si>
-    <t>Гальмування розробки</t>
-  </si>
-  <si>
     <t>Тимчасові перебої енергопостачання</t>
   </si>
   <si>
@@ -96,12 +89,6 @@
     <t>Некоректна робота хостинг сервісу</t>
   </si>
   <si>
-    <t>Недостатня маштабованість</t>
-  </si>
-  <si>
-    <t>Низька кваліфікованість працівників</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сімоніченко Володимир </t>
   </si>
   <si>
@@ -120,9 +107,6 @@
     <t>Свинаренко Анатолій</t>
   </si>
   <si>
-    <t>Затримка в роботі</t>
-  </si>
-  <si>
     <t>Затримка в роботі, зависання та крах продукту</t>
   </si>
   <si>
@@ -141,12 +125,6 @@
     <t>Порушення термінів розробки</t>
   </si>
   <si>
-    <t>Затимка в роботі</t>
-  </si>
-  <si>
-    <t>Некоректна функціональність продукту</t>
-  </si>
-  <si>
     <t>Затримки в роботі</t>
   </si>
   <si>
@@ -156,9 +134,6 @@
     <t>Низька якість продукту, затримки в роботі</t>
   </si>
   <si>
-    <t>Недостатня комунікація з клієнтом</t>
-  </si>
-  <si>
     <t>Фіксація вимог</t>
   </si>
   <si>
@@ -180,24 +155,15 @@
     <t>Влаштовувати корпоративи</t>
   </si>
   <si>
-    <t>Регулятрне обговорення продукту з замовником</t>
-  </si>
-  <si>
     <t>Правильний підбір хостингу</t>
   </si>
   <si>
-    <t>Забезпечити маштабованості продукту</t>
-  </si>
-  <si>
     <t>Коректний підбір працівників</t>
   </si>
   <si>
     <t>Взаємодопомога в команді</t>
   </si>
   <si>
-    <t>Корекція відповідно до стандартів</t>
-  </si>
-  <si>
     <t>Корегування коду</t>
   </si>
   <si>
@@ -225,15 +191,9 @@
     <t>Підвищення рівня комунікації в команді</t>
   </si>
   <si>
-    <t>Додаткове інтерв`ю з замовником</t>
-  </si>
-  <si>
     <t>Зміна хостингу</t>
   </si>
   <si>
-    <t>Підвищення маштабованості</t>
-  </si>
-  <si>
     <t>Заміна працівника</t>
   </si>
   <si>
@@ -249,9 +209,6 @@
     <t>Відсутність чітких вимог</t>
   </si>
   <si>
-    <t>Неправильне підбір працівників</t>
-  </si>
-  <si>
     <t>Непрофесійне тестування</t>
   </si>
   <si>
@@ -261,16 +218,79 @@
     <t>Відсутність сиситеми захисту</t>
   </si>
   <si>
-    <t>Недостатня кількість інтерв`ю</t>
-  </si>
-  <si>
     <t>Неправильний підбір хостингу</t>
   </si>
   <si>
-    <t>Мала маштобаваність</t>
-  </si>
-  <si>
     <t>Непрофесійне виконання обовязків</t>
+  </si>
+  <si>
+    <t>Органи які займаються сферою електромереж повині заздалегідь попередити</t>
+  </si>
+  <si>
+    <t>Недостатння компетентність працівників</t>
+  </si>
+  <si>
+    <t>Розлад у команді</t>
+  </si>
+  <si>
+    <t>Сервер не в змозі опрацювати запити.</t>
+  </si>
+  <si>
+    <t>Непорузоміння в команді тим сами затримка в  роботі</t>
+  </si>
+  <si>
+    <t>Встановити межі на кількість запитів, які сервер може обробити за певний період часу.</t>
+  </si>
+  <si>
+    <t>Підвищте потужність сервера, використовуючи додаткові ресурси, якщо це необхідно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зростання обсягу запитів на сервер або нездатність сервера відповісти на запити протягом визначеного періоду </t>
+  </si>
+  <si>
+    <t>Можлива втрата або пошкодження важливих даних для бізнесу/користувача.</t>
+  </si>
+  <si>
+    <t>Втрата або пошкодження даних через перебої в енергопостачанні.</t>
+  </si>
+  <si>
+    <t>Недостатня якісна документація</t>
+  </si>
+  <si>
+    <t>Не розуміння продукту користувачем та може пошкодити репутацію компанії</t>
+  </si>
+  <si>
+    <t>Проведення тренінгів для працівників з написання документації, що відповідає вимогам та стандартам компанії</t>
+  </si>
+  <si>
+    <t>Несприятливих відгуків клієнтів про продукти або послуги компанії</t>
+  </si>
+  <si>
+    <t>Кадрова необізнаність</t>
+  </si>
+  <si>
+    <t>Погіршення якості продукту або послуги, що може призвести до втрати клієнтів та репутації компанії</t>
+  </si>
+  <si>
+    <t>Затримки у розробці проекту</t>
+  </si>
+  <si>
+    <t>Код низької якості</t>
+  </si>
+  <si>
+    <t>Перевантаження робочого графіку</t>
+  </si>
+  <si>
+    <t>Зниження продуктивності та ефективності роботи</t>
+  </si>
+  <si>
+    <t>Розподіл завдань між робітниками з урахуванням їхніх компетенцій та робочого навантаження.</t>
+  </si>
+  <si>
+    <t>Проведення перерв для відпочинку та релаксації працівників</t>
+  </si>
+  <si>
+    <t>Надмірне завантаження працівників через зростання кількості завдань та обсягів роботи</t>
   </si>
 </sst>
 </file>
@@ -373,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,13 +432,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -693,46 +722,46 @@
     </row>
     <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="11">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="11">
         <f>D2*E2</f>
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
+      <c r="C3" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="11">
         <v>0.4</v>
@@ -745,60 +774,60 @@
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="11">
         <f>D4*E4</f>
-        <v>2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="11">
         <v>0.6</v>
@@ -810,380 +839,380 @@
         <f>D5*E5</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>12</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>40</v>
+      <c r="C6" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="11">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="11">
         <f>D6*E6</f>
-        <v>1.7999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15">
+        <f>D7*E7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>10</v>
       </c>
-      <c r="D7" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="16">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16">
-        <f>D7*E7</f>
-        <v>1.2</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
         <f>D8*E8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="G8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>10</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="16">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15">
         <v>0.2</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>5</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f>D9*E9</f>
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15">
+        <f>D10*E10</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <f>D11*E11</f>
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>15</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5</v>
-      </c>
-      <c r="F10" s="16">
-        <f>D10*E10</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3</v>
-      </c>
-      <c r="F11" s="16">
-        <f>D11*E11</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>26</v>
+      <c r="H11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15">
         <v>0.2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <f>D12*E12</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="15">
         <v>0.2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f>D13*E13</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>28</v>
+      <c r="G13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="15">
         <v>0.3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f>D14*E14</f>
         <v>0.6</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>31</v>
+      <c r="I14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="B15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="15">
         <v>0.1</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <f>D15*E15</f>
         <v>0.4</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="G15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="15">
         <v>0.1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>3</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <f>D16*E16</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>31</v>
+      <c r="H16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1292,32 +1321,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roma0\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roma0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Ризики" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>Використання альтернативних засобів енергопостачання</t>
   </si>
   <si>
-    <t>Влаштовувати корпоративи</t>
-  </si>
-  <si>
     <t>Правильний підбір хостингу</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>Надмірне завантаження працівників через зростання кількості завдань та обсягів роботи</t>
+  </si>
+  <si>
+    <t>Тримати рівень комунікації в команді на високому рівні</t>
   </si>
 </sst>
 </file>
@@ -670,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D2:F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -737,17 +737,17 @@
         <v>5</v>
       </c>
       <c r="F2" s="11">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F16" si="0">D2*E2</f>
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>19</v>
@@ -761,7 +761,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11">
         <v>0.4</v>
@@ -770,17 +770,17 @@
         <v>5</v>
       </c>
       <c r="F3" s="11">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>19</v>
@@ -803,17 +803,17 @@
         <v>3</v>
       </c>
       <c r="F4" s="11">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>20</v>
@@ -824,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="D5" s="11">
         <v>0.6</v>
@@ -836,17 +836,17 @@
         <v>3</v>
       </c>
       <c r="F5" s="11">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>20</v>
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="D6" s="11">
         <v>0.3</v>
@@ -869,17 +869,17 @@
         <v>4</v>
       </c>
       <c r="F6" s="11">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>20</v>
@@ -890,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>29</v>
@@ -902,17 +902,17 @@
         <v>2</v>
       </c>
       <c r="F7" s="15">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>21</v>
@@ -926,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="15">
         <v>0.2</v>
@@ -935,17 +935,17 @@
         <v>5</v>
       </c>
       <c r="F8" s="15">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>19</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>33</v>
@@ -968,17 +968,17 @@
         <v>5</v>
       </c>
       <c r="F9" s="15">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>19</v>
@@ -1001,17 +1001,17 @@
         <v>3</v>
       </c>
       <c r="F10" s="15">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>19</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="19">
         <v>0.8</v>
@@ -1034,17 +1034,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="19">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>20</v>
@@ -1067,17 +1067,17 @@
         <v>3</v>
       </c>
       <c r="F12" s="15">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>23</v>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>30</v>
@@ -1100,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="15">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -1110,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>21</v>
@@ -1133,17 +1133,17 @@
         <v>2</v>
       </c>
       <c r="F14" s="15">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>24</v>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>26</v>
@@ -1166,17 +1166,17 @@
         <v>4</v>
       </c>
       <c r="F15" s="15">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>21</v>
@@ -1187,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>32</v>
@@ -1199,17 +1199,17 @@
         <v>3</v>
       </c>
       <c r="F16" s="15">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="I16" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>24</v>
